--- a/Multiknapsack/results/random_recourse/singlecut/M20_N20_T10_a25_reformulation.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M20_N20_T10_a25_reformulation.xlsx
@@ -446,10 +446,10 @@
         <v>-30.266472884197746</v>
       </c>
       <c r="C2">
-        <v>0.11200225136100099</v>
+        <v>0.10982014941406522</v>
       </c>
       <c r="D2">
-        <v>3603.01615502</v>
+        <v>3603.181185708</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -472,10 +472,10 @@
         <v>-28.384341627459477</v>
       </c>
       <c r="C3">
-        <v>0.14148108391800487</v>
+        <v>0.1410716416367616</v>
       </c>
       <c r="D3">
-        <v>3600.389943658</v>
+        <v>3600.319577146</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -495,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-31.00561309570857</v>
+        <v>-31.005961887755465</v>
       </c>
       <c r="C4">
-        <v>0.11957305835338998</v>
+        <v>0.118061786714723</v>
       </c>
       <c r="D4">
-        <v>3600.277840339</v>
+        <v>3600.228164379</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -524,10 +524,10 @@
         <v>-31.010543841893252</v>
       </c>
       <c r="C5">
-        <v>0.103015098605781</v>
+        <v>0.10316706501824413</v>
       </c>
       <c r="D5">
-        <v>3600.295226957</v>
+        <v>3600.3665329</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -553,7 +553,7 @@
         <v>0.09550705848519292</v>
       </c>
       <c r="D6">
-        <v>195.811101905</v>
+        <v>219.9979068</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -576,10 +576,10 @@
         <v>-28.160473111150495</v>
       </c>
       <c r="C7">
-        <v>0.13040519297860506</v>
+        <v>0.1302676711416746</v>
       </c>
       <c r="D7">
-        <v>3600.289721938</v>
+        <v>3600.399690093</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -602,10 +602,10 @@
         <v>-29.550403337172593</v>
       </c>
       <c r="C8">
-        <v>0.17037540648414928</v>
+        <v>0.17110576102726616</v>
       </c>
       <c r="D8">
-        <v>3600.263270149</v>
+        <v>3600.32528273</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -628,10 +628,10 @@
         <v>-31.870972457327568</v>
       </c>
       <c r="C9">
-        <v>0.10443788673624792</v>
+        <v>0.10588533590270065</v>
       </c>
       <c r="D9">
-        <v>3600.347767153</v>
+        <v>3600.313373911</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -654,10 +654,10 @@
         <v>-30.601169426112072</v>
       </c>
       <c r="C10">
-        <v>0.14826382561845428</v>
+        <v>0.14952658509332356</v>
       </c>
       <c r="D10">
-        <v>3600.342826086</v>
+        <v>3600.314417251</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -680,10 +680,10 @@
         <v>-27.043923819462822</v>
       </c>
       <c r="C11">
-        <v>0.15999904271108947</v>
+        <v>0.1608880825972639</v>
       </c>
       <c r="D11">
-        <v>3600.245333336</v>
+        <v>3600.319067856</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
